--- a/evaluation/results/hybrid/autoencoder/isolation_forest/split_1/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/autoencoder/isolation_forest/split_1/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.5093632958801498</v>
+        <v>0.6685393258426966</v>
       </c>
       <c r="C2">
-        <v>0.5833333333333334</v>
+        <v>0.6108374384236454</v>
       </c>
       <c r="D2">
-        <v>0.06554307116104868</v>
+        <v>0.9288389513108615</v>
       </c>
       <c r="E2">
-        <v>0.1178451178451178</v>
+        <v>0.736998514115899</v>
       </c>
       <c r="F2">
-        <v>0.07969034608378871</v>
+        <v>0.841248303934871</v>
       </c>
       <c r="G2">
-        <v>0.06785980611483967</v>
+        <v>0.9106058466318316</v>
       </c>
       <c r="H2">
-        <v>0.5093632958801498</v>
+        <v>0.7732609519000125</v>
       </c>
       <c r="I2">
-        <v>35</v>
+        <v>496</v>
       </c>
       <c r="J2">
-        <v>25</v>
+        <v>316</v>
       </c>
       <c r="K2">
-        <v>509</v>
+        <v>218</v>
       </c>
       <c r="L2">
-        <v>499</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.5049603174603174</v>
+        <v>0.8515625</v>
       </c>
       <c r="C2">
-        <v>0.9531835205992509</v>
+        <v>0.4082397003745318</v>
       </c>
       <c r="D2">
-        <v>0.6601815823605707</v>
+        <v>0.5518987341772152</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.5833333333333334</v>
+        <v>0.6108374384236454</v>
       </c>
       <c r="C3">
-        <v>0.06554307116104868</v>
+        <v>0.9288389513108615</v>
       </c>
       <c r="D3">
-        <v>0.1178451178451178</v>
+        <v>0.736998514115899</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.5093632958801498</v>
+        <v>0.6685393258426966</v>
       </c>
       <c r="C4">
-        <v>0.5093632958801498</v>
+        <v>0.6685393258426966</v>
       </c>
       <c r="D4">
-        <v>0.5093632958801498</v>
+        <v>0.6685393258426966</v>
       </c>
       <c r="E4">
-        <v>0.5093632958801498</v>
+        <v>0.6685393258426966</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.5441468253968254</v>
+        <v>0.7311999692118227</v>
       </c>
       <c r="C5">
-        <v>0.5093632958801498</v>
+        <v>0.6685393258426966</v>
       </c>
       <c r="D5">
-        <v>0.3890133501028443</v>
+        <v>0.6444486241465571</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.5441468253968254</v>
+        <v>0.7311999692118227</v>
       </c>
       <c r="C6">
-        <v>0.5093632958801498</v>
+        <v>0.6685393258426966</v>
       </c>
       <c r="D6">
-        <v>0.3890133501028443</v>
+        <v>0.6444486241465571</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>509</v>
+        <v>218</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>499</v>
+        <v>38</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
